--- a/optim_r_ref_exp.xlsx
+++ b/optim_r_ref_exp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi/github/SFP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2258EBB-F34A-0B48-921F-2D2401AC697E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6C02AE-6F7F-424C-BB6B-9E2E191B4187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="39740" windowHeight="22580" xr2:uid="{DBC9F8BE-E54E-D745-ADB4-BC86104A2E68}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{DBC9F8BE-E54E-D745-ADB4-BC86104A2E68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>ref</t>
     <phoneticPr fontId="1"/>
@@ -58,6 +52,10 @@
   </si>
   <si>
     <t>4号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6号</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -254,52 +252,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>290</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320</c:v>
+                  <c:v>745</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>344</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>417</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>444</c:v>
+                  <c:v>907</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>463</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>514</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>544</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>625</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,52 +306,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1020.9580838323353</c:v>
+                  <c:v>801.09631949882544</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000.9784735812133</c:v>
+                  <c:v>779.72560975609758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>986.49951783992276</c:v>
+                  <c:v>757.77777777777771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>894.23076923076928</c:v>
+                  <c:v>684.73895582329317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>872.86689419795221</c:v>
+                  <c:v>664.71734892787515</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>853.21100917431193</c:v>
+                  <c:v>646.64981036662459</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>793.02325581395348</c:v>
+                  <c:v>597.19789842381783</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>775</c:v>
+                  <c:v>586.24641833810881</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>761.16071428571433</c:v>
+                  <c:v>575.36557930258721</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>721.94777699364863</c:v>
+                  <c:v>545.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>708.44875346260392</c:v>
+                  <c:v>536.44467750393289</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>699.24812030075191</c:v>
+                  <c:v>528.13629323696443</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>675.69352708058125</c:v>
+                  <c:v>513.29653788258906</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>662.56476683937819</c:v>
+                  <c:v>525.96401028277637</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>649.52380952380952</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>629.53846153846155</c:v>
+                  <c:v>493.96426846933844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,7 +369,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>550</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -421,8 +413,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.3728167891147498"/>
-                  <c:y val="0.10957733949121744"/>
+                  <c:x val="-0.37246690607188748"/>
+                  <c:y val="0.17296960175651122"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -459,52 +451,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>290</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320</c:v>
+                  <c:v>745</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>344</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>417</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>444</c:v>
+                  <c:v>907</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>463</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>514</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>544</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>625</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -516,52 +505,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1019.2934782608695</c:v>
+                  <c:v>747.078870496592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>983.65384615384619</c:v>
+                  <c:v>722.45762711864415</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>958.51788756388407</c:v>
+                  <c:v>697.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>810.7348703170029</c:v>
+                  <c:v>616.76045016077171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>779.29362880886436</c:v>
+                  <c:v>595.22885958107054</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>751.20160213618158</c:v>
+                  <c:v>576.01351351351354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>669.82142857142856</c:v>
+                  <c:v>524.43609022556393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>646.72413793103453</c:v>
+                  <c:v>513.21070234113711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>629.3624161073825</c:v>
+                  <c:v>502.12696335078533</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>581.85108583247154</c:v>
+                  <c:v>472.15384615384619</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>566.04627766599594</c:v>
+                  <c:v>463.03560651780327</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>555.42941757156962</c:v>
+                  <c:v>454.80142264374626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>528.80639097744358</c:v>
+                  <c:v>440.18932874354562</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>514.3053016453382</c:v>
+                  <c:v>452.6548672566372</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>500.13333333333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>478.85106382978722</c:v>
+                  <c:v>421.33443163097201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,7 +568,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>470</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -626,8 +612,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.35775402760847363"/>
-                  <c:y val="0.2447827074500302"/>
+                  <c:x val="-0.35238322406351924"/>
+                  <c:y val="0.33371611901877651"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -667,52 +653,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>290</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320</c:v>
+                  <c:v>745</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>344</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>417</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>444</c:v>
+                  <c:v>907</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>463</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>514</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>544</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>625</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,52 +707,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1018.6652542372882</c:v>
+                  <c:v>797.56563245823384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>977.2560975609756</c:v>
+                  <c:v>775.95975232198145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>948.34319526627212</c:v>
+                  <c:v>753.78947368421052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>783.07817589576553</c:v>
+                  <c:v>680.14925373134326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>748.92523364485976</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>718.69955156950664</c:v>
+                  <c:v>641.83098591549299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>632.64473684210532</c:v>
+                  <c:v>592.16774955699941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>608.62025316455686</c:v>
+                  <c:v>581.18260869565222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>590.67567567567562</c:v>
+                  <c:v>570.27303754266211</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>542.06313416009027</c:v>
+                  <c:v>540.45283018867929</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>526.05032822757107</c:v>
+                  <c:v>531.28775834658188</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>515.33762057877811</c:v>
+                  <c:v>522.97339593114248</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>488.6280487804878</c:v>
+                  <c:v>508.1297516472377</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>474.17159763313606</c:v>
+                  <c:v>520.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>460.10526315789474</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>439.09589041095887</c:v>
+                  <c:v>488.80546075085323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -790,7 +770,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -872,52 +852,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>290</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320</c:v>
+                  <c:v>745</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>344</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>417</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>444</c:v>
+                  <c:v>907</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>463</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>514</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>544</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>625</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,52 +906,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1018.9243027888447</c:v>
+                  <c:v>703.52874859075541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>979.8850574712643</c:v>
+                  <c:v>676.82212581344902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>952.51396648044692</c:v>
+                  <c:v>650.03125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>794.25465838509319</c:v>
+                  <c:v>565.24456521739137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>761.16071428571433</c:v>
+                  <c:v>543.10704960835506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>731.75965665236049</c:v>
+                  <c:v>523.51510067114089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>647.4683544303798</c:v>
+                  <c:v>471.67800453514741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>623.78048780487802</c:v>
+                  <c:v>460.5387453874539</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>606.042654028436</c:v>
+                  <c:v>449.58933717579248</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>557.79716466739364</c:v>
+                  <c:v>420.22222222222223</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>541.84322033898309</c:v>
+                  <c:v>411.35794330916281</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>531.15264797507791</c:v>
+                  <c:v>403.38073691014864</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>504.43786982248525</c:v>
+                  <c:v>389.28883343730502</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>489.94252873563215</c:v>
+                  <c:v>401.30546623794214</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>475.81395348837208</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>454.66666666666663</c:v>
+                  <c:v>371.22546103509814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,25 +1319,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>417</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>444</c:v>
+                  <c:v>907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>463</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>514</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>544</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>625</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,25 +1346,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>721.94777699364863</c:v>
+                  <c:v>545.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>708.44875346260392</c:v>
+                  <c:v>536.44467750393289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>699.24812030075191</c:v>
+                  <c:v>528.13629323696443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>675.69352708058125</c:v>
+                  <c:v>513.29653788258906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>662.56476683937819</c:v>
+                  <c:v>525.96401028277637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>649.52380952380952</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>629.53846153846155</c:v>
+                  <c:v>493.96426846933844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,7 +1382,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>550</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1496,25 +1464,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>417</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>444</c:v>
+                  <c:v>907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>463</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>514</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>544</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>625</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,25 +1491,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>581.85108583247154</c:v>
+                  <c:v>472.15384615384619</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>566.04627766599594</c:v>
+                  <c:v>463.03560651780327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>555.42941757156962</c:v>
+                  <c:v>454.80142264374626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>528.80639097744358</c:v>
+                  <c:v>440.18932874354562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>514.3053016453382</c:v>
+                  <c:v>452.6548672566372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500.13333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>478.85106382978722</c:v>
+                  <c:v>421.33443163097201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,7 +1527,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>470</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1609,8 +1571,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.46421796856982833"/>
-                  <c:y val="-0.36317004845548151"/>
+                  <c:x val="-0.46192178697328107"/>
+                  <c:y val="-5.5250037855844987E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1650,25 +1612,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>417</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>444</c:v>
+                  <c:v>907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>463</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>514</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>544</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>625</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,25 +1639,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>542.06313416009027</c:v>
+                  <c:v>540.45283018867929</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>526.05032822757107</c:v>
+                  <c:v>531.28775834658188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>515.33762057877811</c:v>
+                  <c:v>522.97339593114248</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>488.6280487804878</c:v>
+                  <c:v>508.1297516472377</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>474.17159763313606</c:v>
+                  <c:v>520.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>460.10526315789474</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>439.09589041095887</c:v>
+                  <c:v>488.80546075085323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1719,7 +1675,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1801,25 +1757,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>417</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>444</c:v>
+                  <c:v>907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>463</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>514</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>544</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>625</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1831,25 +1784,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>557.79716466739364</c:v>
+                  <c:v>420.22222222222223</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>541.84322033898309</c:v>
+                  <c:v>411.35794330916281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>531.15264797507791</c:v>
+                  <c:v>403.38073691014864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>504.43786982248525</c:v>
+                  <c:v>389.28883343730502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>489.94252873563215</c:v>
+                  <c:v>401.30546623794214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>475.81395348837208</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>454.66666666666663</c:v>
+                  <c:v>371.22546103509814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3598,7 +3548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28108982-45D9-1F49-A457-0969A563EDDB}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
@@ -3609,7 +3559,7 @@
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3658,47 +3608,50 @@
       <c r="W1" t="s">
         <v>6</v>
       </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="C2" s="1">
         <f>A$2/(A$2+B2)*1023</f>
-        <v>1020.9580838323353</v>
+        <v>801.09631949882544</v>
       </c>
       <c r="E2">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="G2" s="1">
         <f>E$2/(E$2+F2)*1023</f>
-        <v>1019.2934782608695</v>
+        <v>747.078870496592</v>
       </c>
       <c r="I2">
-        <v>470</v>
+        <v>980</v>
       </c>
       <c r="J2" s="2">
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="K2" s="1">
         <f>I$2/(I$2+J2)*1023</f>
-        <v>1018.6652542372882</v>
+        <v>797.56563245823384</v>
       </c>
       <c r="M2">
-        <v>500</v>
+        <v>610</v>
       </c>
       <c r="N2" s="2">
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="O2" s="1">
         <f>M$2/(M$2+N2)*1023</f>
-        <v>1018.9243027888447</v>
+        <v>703.52874859075541</v>
       </c>
       <c r="V2" s="2">
         <v>2</v>
@@ -3706,39 +3659,38 @@
       <c r="W2" s="2">
         <v>2</v>
       </c>
+      <c r="Y2" s="2">
+        <v>277</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:25">
       <c r="B3" s="2">
-        <f>B2+20</f>
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C17" si="0">A$2/(A$2+B3)*1023</f>
-        <v>1000.9784735812133</v>
+        <f t="shared" ref="C3:C16" si="0">A$2/(A$2+B3)*1023</f>
+        <v>779.72560975609758</v>
       </c>
       <c r="F3" s="2">
-        <f>F2+20</f>
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G17" si="1">E$2/(E$2+F3)*1023</f>
-        <v>983.65384615384619</v>
+        <f t="shared" ref="G3:G16" si="1">E$2/(E$2+F3)*1023</f>
+        <v>722.45762711864415</v>
       </c>
       <c r="J3" s="2">
-        <f>J2+20</f>
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K17" si="2">I$2/(I$2+J3)*1023</f>
-        <v>977.2560975609756</v>
+        <f t="shared" ref="K3:K16" si="2">I$2/(I$2+J3)*1023</f>
+        <v>775.95975232198145</v>
       </c>
       <c r="N3" s="2">
-        <f>N2+20</f>
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O17" si="3">M$2/(M$2+N3)*1023</f>
-        <v>979.8850574712643</v>
+        <f t="shared" ref="O3:O16" si="3">M$2/(M$2+N3)*1023</f>
+        <v>676.82212581344902</v>
       </c>
       <c r="V3" s="2">
         <f>V2+37</f>
@@ -3748,39 +3700,38 @@
         <f>W2+20</f>
         <v>22</v>
       </c>
+      <c r="Y3" s="2">
+        <v>312</v>
+      </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:25">
       <c r="B4" s="2">
-        <f>B3+15</f>
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>986.49951783992276</v>
+        <v>757.77777777777771</v>
       </c>
       <c r="F4" s="2">
-        <f>F3+15</f>
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>958.51788756388407</v>
+        <v>697.5</v>
       </c>
       <c r="J4" s="2">
-        <f>J3+15</f>
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="2"/>
-        <v>948.34319526627212</v>
+        <v>753.78947368421052</v>
       </c>
       <c r="N4" s="2">
-        <f>N3+15</f>
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="3"/>
-        <v>952.51396648044692</v>
+        <v>650.03125</v>
       </c>
       <c r="V4" s="2">
         <f>V3+27</f>
@@ -3790,39 +3741,38 @@
         <f>W3+15</f>
         <v>37</v>
       </c>
+      <c r="Y4" s="2">
+        <v>350</v>
+      </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:25">
       <c r="B5" s="2">
-        <f>B4+107</f>
-        <v>144</v>
+        <v>494</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>894.23076923076928</v>
+        <v>684.73895582329317</v>
       </c>
       <c r="F5" s="2">
-        <f>F4+107</f>
-        <v>144</v>
+        <v>494</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>810.7348703170029</v>
+        <v>616.76045016077171</v>
       </c>
       <c r="J5" s="2">
-        <f>J4+107</f>
-        <v>144</v>
+        <v>494</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>783.07817589576553</v>
+        <v>680.14925373134326</v>
       </c>
       <c r="N5" s="2">
-        <f>N4+107</f>
-        <v>144</v>
+        <v>494</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="3"/>
-        <v>794.25465838509319</v>
+        <v>565.24456521739137</v>
       </c>
       <c r="V5" s="2">
         <f>V4+103</f>
@@ -3832,39 +3782,38 @@
         <f>W4+107</f>
         <v>144</v>
       </c>
+      <c r="Y5" s="2">
+        <v>494</v>
+      </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:25">
       <c r="B6" s="2">
-        <f>B5+28</f>
-        <v>172</v>
+        <v>539</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>872.86689419795221</v>
+        <v>664.71734892787515</v>
       </c>
       <c r="F6" s="2">
-        <f>F5+28</f>
-        <v>172</v>
+        <v>539</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>779.29362880886436</v>
+        <v>595.22885958107054</v>
       </c>
       <c r="J6" s="2">
-        <f>J5+28</f>
-        <v>172</v>
+        <v>539</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>748.92523364485976</v>
+        <v>660</v>
       </c>
       <c r="N6" s="2">
-        <f>N5+28</f>
-        <v>172</v>
+        <v>539</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="3"/>
-        <v>761.16071428571433</v>
+        <v>543.10704960835506</v>
       </c>
       <c r="V6" s="2">
         <f>V5+33</f>
@@ -3874,39 +3823,38 @@
         <f>W5+28</f>
         <v>172</v>
       </c>
+      <c r="Y6" s="2">
+        <v>539</v>
+      </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:25">
       <c r="B7" s="2">
-        <f>B6+27</f>
-        <v>199</v>
+        <v>582</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>853.21100917431193</v>
+        <v>646.64981036662459</v>
       </c>
       <c r="F7" s="2">
-        <f>F6+27</f>
-        <v>199</v>
+        <v>582</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>751.20160213618158</v>
+        <v>576.01351351351354</v>
       </c>
       <c r="J7" s="2">
-        <f>J6+27</f>
-        <v>199</v>
+        <v>582</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>718.69955156950664</v>
+        <v>641.83098591549299</v>
       </c>
       <c r="N7" s="2">
-        <f>N6+27</f>
-        <v>199</v>
+        <v>582</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="3"/>
-        <v>731.75965665236049</v>
+        <v>523.51510067114089</v>
       </c>
       <c r="V7" s="2">
         <f>V6+44</f>
@@ -3916,39 +3864,38 @@
         <f>W6+27</f>
         <v>199</v>
       </c>
+      <c r="Y7" s="2">
+        <v>582</v>
+      </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:25">
       <c r="B8">
-        <f>B7+91</f>
-        <v>290</v>
+        <v>713</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>793.02325581395348</v>
+        <v>597.19789842381783</v>
       </c>
       <c r="F8">
-        <f>F7+91</f>
-        <v>290</v>
+        <v>713</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>669.82142857142856</v>
+        <v>524.43609022556393</v>
       </c>
       <c r="J8">
-        <f>J7+91</f>
-        <v>290</v>
+        <v>713</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>632.64473684210532</v>
+        <v>592.16774955699941</v>
       </c>
       <c r="N8">
-        <f>N7+91</f>
-        <v>290</v>
+        <v>713</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="3"/>
-        <v>647.4683544303798</v>
+        <v>471.67800453514741</v>
       </c>
       <c r="V8">
         <f>V7+118</f>
@@ -3958,39 +3905,38 @@
         <f>W7+91</f>
         <v>290</v>
       </c>
+      <c r="Y8">
+        <v>713</v>
+      </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:25">
       <c r="B9">
-        <f>B8+30</f>
-        <v>320</v>
+        <v>745</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>775</v>
+        <v>586.24641833810881</v>
       </c>
       <c r="F9">
-        <f>F8+30</f>
-        <v>320</v>
+        <v>745</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>646.72413793103453</v>
+        <v>513.21070234113711</v>
       </c>
       <c r="J9">
-        <f>J8+30</f>
-        <v>320</v>
+        <v>745</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>608.62025316455686</v>
+        <v>581.18260869565222</v>
       </c>
       <c r="N9">
-        <f>N8+30</f>
-        <v>320</v>
+        <v>745</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="3"/>
-        <v>623.78048780487802</v>
+        <v>460.5387453874539</v>
       </c>
       <c r="V9">
         <f>V8+35</f>
@@ -4000,39 +3946,38 @@
         <f>W8+30</f>
         <v>320</v>
       </c>
+      <c r="Y9">
+        <v>745</v>
+      </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:25">
       <c r="B10">
-        <f>B9+24</f>
-        <v>344</v>
+        <v>778</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>761.16071428571433</v>
+        <v>575.36557930258721</v>
       </c>
       <c r="F10">
-        <f>F9+24</f>
-        <v>344</v>
+        <v>778</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>629.3624161073825</v>
+        <v>502.12696335078533</v>
       </c>
       <c r="J10">
-        <f>J9+24</f>
-        <v>344</v>
+        <v>778</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="2"/>
-        <v>590.67567567567562</v>
+        <v>570.27303754266211</v>
       </c>
       <c r="N10">
-        <f>N9+24</f>
-        <v>344</v>
+        <v>778</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="3"/>
-        <v>606.042654028436</v>
+        <v>449.58933717579248</v>
       </c>
       <c r="V10">
         <f>V9+42</f>
@@ -4042,39 +3987,38 @@
         <f>W9+24</f>
         <v>344</v>
       </c>
+      <c r="Y10">
+        <v>778</v>
+      </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:25">
       <c r="B11">
-        <f>B10+73</f>
-        <v>417</v>
+        <v>875</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>721.94777699364863</v>
+        <v>545.6</v>
       </c>
       <c r="F11">
-        <f>F10+73</f>
-        <v>417</v>
+        <v>875</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>581.85108583247154</v>
+        <v>472.15384615384619</v>
       </c>
       <c r="J11">
-        <f>J10+73</f>
-        <v>417</v>
+        <v>875</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="2"/>
-        <v>542.06313416009027</v>
+        <v>540.45283018867929</v>
       </c>
       <c r="N11">
-        <f>N10+73</f>
-        <v>417</v>
+        <v>875</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="3"/>
-        <v>557.79716466739364</v>
+        <v>420.22222222222223</v>
       </c>
       <c r="V11">
         <f>V10+111</f>
@@ -4084,39 +4028,38 @@
         <f>W10+73</f>
         <v>417</v>
       </c>
+      <c r="Y11">
+        <v>875</v>
+      </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:25">
       <c r="B12">
-        <f>B11+27</f>
-        <v>444</v>
+        <v>907</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>708.44875346260392</v>
+        <v>536.44467750393289</v>
       </c>
       <c r="F12">
-        <f>F11+27</f>
-        <v>444</v>
+        <v>907</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>566.04627766599594</v>
+        <v>463.03560651780327</v>
       </c>
       <c r="J12">
-        <f>J11+27</f>
-        <v>444</v>
+        <v>907</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="2"/>
-        <v>526.05032822757107</v>
+        <v>531.28775834658188</v>
       </c>
       <c r="N12">
-        <f>N11+27</f>
-        <v>444</v>
+        <v>907</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="3"/>
-        <v>541.84322033898309</v>
+        <v>411.35794330916281</v>
       </c>
       <c r="V12">
         <f>V11+20</f>
@@ -4126,39 +4069,38 @@
         <f>W11+27</f>
         <v>444</v>
       </c>
+      <c r="Y12">
+        <v>907</v>
+      </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:25">
       <c r="B13">
-        <f>B12+19</f>
-        <v>463</v>
+        <v>937</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>699.24812030075191</v>
+        <v>528.13629323696443</v>
       </c>
       <c r="F13">
-        <f>F12+19</f>
-        <v>463</v>
+        <v>937</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>555.42941757156962</v>
+        <v>454.80142264374626</v>
       </c>
       <c r="J13">
-        <f>J12+19</f>
-        <v>463</v>
+        <v>937</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="2"/>
-        <v>515.33762057877811</v>
+        <v>522.97339593114248</v>
       </c>
       <c r="N13">
-        <f>N12+19</f>
-        <v>463</v>
+        <v>937</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="3"/>
-        <v>531.15264797507791</v>
+        <v>403.38073691014864</v>
       </c>
       <c r="V13">
         <f>V12+37</f>
@@ -4168,39 +4110,38 @@
         <f>W12+19</f>
         <v>463</v>
       </c>
+      <c r="Y13">
+        <v>937</v>
+      </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:25">
       <c r="B14">
-        <f>B13+51</f>
-        <v>514</v>
+        <v>993</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>675.69352708058125</v>
+        <v>513.29653788258906</v>
       </c>
       <c r="F14">
-        <f>F13+51</f>
-        <v>514</v>
+        <v>993</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>528.80639097744358</v>
+        <v>440.18932874354562</v>
       </c>
       <c r="J14">
-        <f>J13+51</f>
-        <v>514</v>
+        <v>993</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="2"/>
-        <v>488.6280487804878</v>
+        <v>508.1297516472377</v>
       </c>
       <c r="N14">
-        <f>N13+51</f>
-        <v>514</v>
+        <v>993</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="3"/>
-        <v>504.43786982248525</v>
+        <v>389.28883343730502</v>
       </c>
       <c r="V14">
         <f>V13+59</f>
@@ -4210,39 +4151,38 @@
         <f>W13+51</f>
         <v>514</v>
       </c>
+      <c r="Y14">
+        <v>993</v>
+      </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:25">
       <c r="B15">
-        <f>B14+30</f>
-        <v>544</v>
+        <v>945</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>662.56476683937819</v>
+        <v>525.96401028277637</v>
       </c>
       <c r="F15">
-        <f>F14+30</f>
-        <v>544</v>
+        <v>945</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>514.3053016453382</v>
+        <v>452.6548672566372</v>
       </c>
       <c r="J15">
-        <f>J14+30</f>
-        <v>544</v>
+        <v>945</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="2"/>
-        <v>474.17159763313606</v>
+        <v>520.79999999999995</v>
       </c>
       <c r="N15">
-        <f>N14+30</f>
-        <v>544</v>
+        <v>945</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="3"/>
-        <v>489.94252873563215</v>
+        <v>401.30546623794214</v>
       </c>
       <c r="V15">
         <f>V14+45</f>
@@ -4252,39 +4192,38 @@
         <f>W14+30</f>
         <v>544</v>
       </c>
+      <c r="Y15">
+        <v>945</v>
+      </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:25">
       <c r="B16">
-        <f>B15+31</f>
-        <v>575</v>
+        <v>1071</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>649.52380952380952</v>
+        <v>493.96426846933844</v>
       </c>
       <c r="F16">
-        <f>F15+31</f>
-        <v>575</v>
+        <v>1071</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>500.13333333333333</v>
+        <v>421.33443163097201</v>
       </c>
       <c r="J16">
-        <f>J15+31</f>
-        <v>575</v>
+        <v>1071</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="2"/>
-        <v>460.10526315789474</v>
+        <v>488.80546075085323</v>
       </c>
       <c r="N16">
-        <f>N15+31</f>
-        <v>575</v>
+        <v>1071</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="3"/>
-        <v>475.81395348837208</v>
+        <v>371.22546103509814</v>
       </c>
       <c r="V16">
         <f>V15+40</f>
@@ -4294,36 +4233,15 @@
         <f>W15+31</f>
         <v>575</v>
       </c>
+      <c r="Y16">
+        <v>1071</v>
+      </c>
     </row>
-    <row r="17" spans="2:23">
-      <c r="B17">
-        <v>625</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>629.53846153846155</v>
-      </c>
-      <c r="F17">
-        <v>625</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>478.85106382978722</v>
-      </c>
-      <c r="J17">
-        <v>625</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="2"/>
-        <v>439.09589041095887</v>
-      </c>
-      <c r="N17">
-        <v>625</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="3"/>
-        <v>454.66666666666663</v>
-      </c>
+    <row r="17" spans="3:23">
+      <c r="C17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="V17">
         <v>765</v>
       </c>

--- a/optim_r_ref_exp.xlsx
+++ b/optim_r_ref_exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi/github/SFP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2258EBB-F34A-0B48-921F-2D2401AC697E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDB0841-C0DB-3849-900A-B1A6F299009D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="460" windowWidth="39740" windowHeight="22580" xr2:uid="{DBC9F8BE-E54E-D745-ADB4-BC86104A2E68}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>ref</t>
     <phoneticPr fontId="1"/>
@@ -58,6 +58,10 @@
   </si>
   <si>
     <t>4号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5号</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -216,8 +220,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.43732599743023753"/>
-                  <c:y val="1.1129618413078573E-4"/>
+                  <c:x val="-0.4372237340625309"/>
+                  <c:y val="-4.9639044518473653E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -254,52 +258,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>290</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>344</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>417</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>444</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>463</c:v>
+                  <c:v>759</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>514</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>544</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>625</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,52 +312,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1020.9580838323353</c:v>
+                  <c:v>915.84601611459266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000.9784735812133</c:v>
+                  <c:v>896.58194566170027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>986.49951783992276</c:v>
+                  <c:v>881.13695090439285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>894.23076923076928</c:v>
+                  <c:v>811.26090404440913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>872.86689419795221</c:v>
+                  <c:v>792.40898528272658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>853.21100917431193</c:v>
+                  <c:v>771.4932126696832</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>793.02325581395348</c:v>
+                  <c:v>738.62815884476538</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>775</c:v>
+                  <c:v>703.09278350515467</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>761.16071428571433</c:v>
+                  <c:v>679.73421926910305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>721.94777699364863</c:v>
+                  <c:v>614.04561824729888</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>708.44875346260392</c:v>
+                  <c:v>596.5014577259476</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>699.24812030075191</c:v>
+                  <c:v>581.58044343376923</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>675.69352708058125</c:v>
+                  <c:v>560.24096385542168</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>662.56476683937819</c:v>
+                  <c:v>552.97297297297303</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>649.52380952380952</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>629.53846153846155</c:v>
+                  <c:v>544.14893617021278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,7 +375,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>550</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -459,52 +457,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>290</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>344</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>417</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>444</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>463</c:v>
+                  <c:v>759</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>514</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>544</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>625</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -516,52 +511,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1019.2934782608695</c:v>
+                  <c:v>892.47546346782985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>983.65384615384619</c:v>
+                  <c:v>869.7130712008501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>958.51788756388407</c:v>
+                  <c:v>851.61290322580646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>810.7348703170029</c:v>
+                  <c:v>771.34778510838828</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>779.29362880886436</c:v>
+                  <c:v>750.13748854262144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>751.20160213618158</c:v>
+                  <c:v>726.82060390763763</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>669.82142857142856</c:v>
+                  <c:v>690.63291139240505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>646.72413793103453</c:v>
+                  <c:v>652.11155378486058</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>629.3624161073825</c:v>
+                  <c:v>627.12643678160919</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>581.85108583247154</c:v>
+                  <c:v>558.25375170532061</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>566.04627766599594</c:v>
+                  <c:v>540.19801980198019</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>555.42941757156962</c:v>
+                  <c:v>524.95189223861451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>528.80639097744358</c:v>
+                  <c:v>503.32103321033208</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>514.3053016453382</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>500.13333333333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>478.85106382978722</c:v>
+                  <c:v>487.14285714285711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,7 +574,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>470</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -626,8 +618,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.35775402760847363"/>
-                  <c:y val="0.2447827074500302"/>
+                  <c:x val="-0.35856264619642209"/>
+                  <c:y val="0.19038139763779527"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -667,52 +659,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>290</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>344</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>417</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>444</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>463</c:v>
+                  <c:v>759</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>514</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>544</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>625</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,52 +713,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1018.6652542372882</c:v>
+                  <c:v>884.94809688581324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>977.2560975609756</c:v>
+                  <c:v>861.1111111111112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>948.34319526627212</c:v>
+                  <c:v>842.20636663007679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>783.07817589576553</c:v>
+                  <c:v>758.90207715133533</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>748.92523364485976</c:v>
+                  <c:v>737.03170028818442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>718.69955156950664</c:v>
+                  <c:v>713.05762081784383</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>632.64473684210532</c:v>
+                  <c:v>675.99118942731286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>608.62025316455686</c:v>
+                  <c:v>636.72199170124486</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>590.67567567567562</c:v>
+                  <c:v>611.35458167330682</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>542.06313416009027</c:v>
+                  <c:v>541.84322033898309</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>526.05032822757107</c:v>
+                  <c:v>523.72013651877126</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>515.33762057877811</c:v>
+                  <c:v>508.44930417495033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>488.6280487804878</c:v>
+                  <c:v>486.83375634517768</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>474.17159763313606</c:v>
+                  <c:v>479.53125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>460.10526315789474</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>439.09589041095887</c:v>
+                  <c:v>470.70552147239266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -790,7 +776,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -872,52 +858,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>290</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>344</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>417</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>444</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>463</c:v>
+                  <c:v>759</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>514</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>544</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>625</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,52 +912,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1018.9243027888447</c:v>
+                  <c:v>876.49938800489599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>979.8850574712643</c:v>
+                  <c:v>851.48632580261597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>952.51396648044692</c:v>
+                  <c:v>831.70731707317066</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>794.25465838509319</c:v>
+                  <c:v>745.16129032258061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>761.16071428571433</c:v>
+                  <c:v>722.60343087790113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>731.75965665236049</c:v>
+                  <c:v>697.953216374269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>647.4683544303798</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>623.78048780487802</c:v>
+                  <c:v>620</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>606.042654028436</c:v>
+                  <c:v>594.27385892116183</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>557.79716466739364</c:v>
+                  <c:v>524.23133235724742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>541.84322033898309</c:v>
+                  <c:v>506.0777385159011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>531.15264797507791</c:v>
+                  <c:v>490.815627141878</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>504.43786982248525</c:v>
+                  <c:v>469.26605504587161</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>489.94252873563215</c:v>
+                  <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>475.81395348837208</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>454.66666666666663</c:v>
+                  <c:v>453.22784810126581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,25 +1325,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>417</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>444</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>463</c:v>
+                  <c:v>759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>514</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>544</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>625</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,25 +1352,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>721.94777699364863</c:v>
+                  <c:v>614.04561824729888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>708.44875346260392</c:v>
+                  <c:v>596.5014577259476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>699.24812030075191</c:v>
+                  <c:v>581.58044343376923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>675.69352708058125</c:v>
+                  <c:v>560.24096385542168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>662.56476683937819</c:v>
+                  <c:v>552.97297297297303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>649.52380952380952</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>629.53846153846155</c:v>
+                  <c:v>544.14893617021278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,7 +1388,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>550</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1496,25 +1470,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>417</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>444</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>463</c:v>
+                  <c:v>759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>514</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>544</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>625</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,25 +1497,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>581.85108583247154</c:v>
+                  <c:v>558.25375170532061</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>566.04627766599594</c:v>
+                  <c:v>540.19801980198019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>555.42941757156962</c:v>
+                  <c:v>524.95189223861451</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>528.80639097744358</c:v>
+                  <c:v>503.32103321033208</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>514.3053016453382</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500.13333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>478.85106382978722</c:v>
+                  <c:v>487.14285714285711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,7 +1533,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>470</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1609,8 +1577,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.46421796856982833"/>
-                  <c:y val="-0.36317004845548151"/>
+                  <c:x val="-0.50046163476427374"/>
+                  <c:y val="0.21956749697153241"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1650,25 +1618,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>417</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>444</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>463</c:v>
+                  <c:v>759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>514</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>544</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>625</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,25 +1645,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>542.06313416009027</c:v>
+                  <c:v>541.84322033898309</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>526.05032822757107</c:v>
+                  <c:v>523.72013651877126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>515.33762057877811</c:v>
+                  <c:v>508.44930417495033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>488.6280487804878</c:v>
+                  <c:v>486.83375634517768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>474.17159763313606</c:v>
+                  <c:v>479.53125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>460.10526315789474</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>439.09589041095887</c:v>
+                  <c:v>470.70552147239266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1719,7 +1681,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1763,8 +1725,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.47258616940664844"/>
-                  <c:y val="0.16036549818291945"/>
+                  <c:x val="-0.51908094751754352"/>
+                  <c:y val="7.2476718655360386E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1801,25 +1763,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>417</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>444</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>463</c:v>
+                  <c:v>759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>514</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>544</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>625</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1831,25 +1790,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>557.79716466739364</c:v>
+                  <c:v>524.23133235724742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>541.84322033898309</c:v>
+                  <c:v>506.0777385159011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>531.15264797507791</c:v>
+                  <c:v>490.815627141878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>504.43786982248525</c:v>
+                  <c:v>469.26605504587161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>489.94252873563215</c:v>
+                  <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>475.81395348837208</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>454.66666666666663</c:v>
+                  <c:v>453.22784810126581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,7 +1832,7 @@
         <c:axId val="1714443760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="400"/>
+          <c:min val="600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3262,16 +3218,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3598,10 +3554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28108982-45D9-1F49-A457-0969A563EDDB}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3609,7 +3565,7 @@
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3658,47 +3614,50 @@
       <c r="W1" t="s">
         <v>6</v>
       </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1">
         <f>A$2/(A$2+B2)*1023</f>
-        <v>1020.9580838323353</v>
+        <v>915.84601611459266</v>
       </c>
       <c r="E2">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="G2" s="1">
         <f>E$2/(E$2+F2)*1023</f>
-        <v>1019.2934782608695</v>
+        <v>892.47546346782985</v>
       </c>
       <c r="I2">
-        <v>470</v>
+        <v>750</v>
       </c>
       <c r="J2" s="2">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="K2" s="1">
         <f>I$2/(I$2+J2)*1023</f>
-        <v>1018.6652542372882</v>
+        <v>884.94809688581324</v>
       </c>
       <c r="M2">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N2" s="2">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="O2" s="1">
         <f>M$2/(M$2+N2)*1023</f>
-        <v>1018.9243027888447</v>
+        <v>876.49938800489599</v>
       </c>
       <c r="V2" s="2">
         <v>2</v>
@@ -3706,39 +3665,41 @@
       <c r="W2" s="2">
         <v>2</v>
       </c>
+      <c r="X2" s="2">
+        <v>117</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
+      <c r="A3">
+        <v>170</v>
+      </c>
       <c r="B3" s="2">
-        <f>B2+20</f>
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C17" si="0">A$2/(A$2+B3)*1023</f>
-        <v>1000.9784735812133</v>
+        <f>A$2/(A$2+B3)*1023</f>
+        <v>896.58194566170027</v>
       </c>
       <c r="F3" s="2">
-        <f>F2+20</f>
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G17" si="1">E$2/(E$2+F3)*1023</f>
-        <v>983.65384615384619</v>
+        <f>E$2/(E$2+F3)*1023</f>
+        <v>869.7130712008501</v>
       </c>
       <c r="J3" s="2">
-        <f>J2+20</f>
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K17" si="2">I$2/(I$2+J3)*1023</f>
-        <v>977.2560975609756</v>
+        <f>I$2/(I$2+J3)*1023</f>
+        <v>861.1111111111112</v>
       </c>
       <c r="N3" s="2">
-        <f>N2+20</f>
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O17" si="3">M$2/(M$2+N3)*1023</f>
-        <v>979.8850574712643</v>
+        <f t="shared" ref="O3:O15" si="0">M$2/(M$2+N3)*1023</f>
+        <v>851.48632580261597</v>
       </c>
       <c r="V3" s="2">
         <f>V2+37</f>
@@ -3748,39 +3709,38 @@
         <f>W2+20</f>
         <v>22</v>
       </c>
+      <c r="X3" s="2">
+        <v>141</v>
+      </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="B4" s="2">
-        <f>B3+15</f>
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1">
+        <f>A$2/(A$2+B4)*1023</f>
+        <v>881.13695090439285</v>
+      </c>
+      <c r="F4" s="2">
+        <v>161</v>
+      </c>
+      <c r="G4" s="1">
+        <f>E$2/(E$2+F4)*1023</f>
+        <v>851.61290322580646</v>
+      </c>
+      <c r="J4" s="2">
+        <v>161</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I$2/(I$2+J4)*1023</f>
+        <v>842.20636663007679</v>
+      </c>
+      <c r="N4" s="2">
+        <v>161</v>
+      </c>
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>986.49951783992276</v>
-      </c>
-      <c r="F4" s="2">
-        <f>F3+15</f>
-        <v>37</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="1"/>
-        <v>958.51788756388407</v>
-      </c>
-      <c r="J4" s="2">
-        <f>J3+15</f>
-        <v>37</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="2"/>
-        <v>948.34319526627212</v>
-      </c>
-      <c r="N4" s="2">
-        <f>N3+15</f>
-        <v>37</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="3"/>
-        <v>952.51396648044692</v>
+        <v>831.70731707317066</v>
       </c>
       <c r="V4" s="2">
         <f>V3+27</f>
@@ -3790,39 +3750,38 @@
         <f>W3+15</f>
         <v>37</v>
       </c>
+      <c r="X4" s="2">
+        <v>161</v>
+      </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="B5" s="2">
-        <f>B4+107</f>
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1">
+        <f>A$2/(A$2+B5)*1023</f>
+        <v>811.26090404440913</v>
+      </c>
+      <c r="F5" s="2">
+        <v>261</v>
+      </c>
+      <c r="G5" s="1">
+        <f>E$2/(E$2+F5)*1023</f>
+        <v>771.34778510838828</v>
+      </c>
+      <c r="J5" s="2">
+        <v>261</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I$2/(I$2+J5)*1023</f>
+        <v>758.90207715133533</v>
+      </c>
+      <c r="N5" s="2">
+        <v>261</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>894.23076923076928</v>
-      </c>
-      <c r="F5" s="2">
-        <f>F4+107</f>
-        <v>144</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>810.7348703170029</v>
-      </c>
-      <c r="J5" s="2">
-        <f>J4+107</f>
-        <v>144</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="2"/>
-        <v>783.07817589576553</v>
-      </c>
-      <c r="N5" s="2">
-        <f>N4+107</f>
-        <v>144</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="3"/>
-        <v>794.25465838509319</v>
+        <v>745.16129032258061</v>
       </c>
       <c r="V5" s="2">
         <f>V4+103</f>
@@ -3832,39 +3791,38 @@
         <f>W4+107</f>
         <v>144</v>
       </c>
+      <c r="X5" s="2">
+        <v>261</v>
+      </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="B6" s="2">
-        <f>B5+28</f>
-        <v>172</v>
+        <v>291</v>
       </c>
       <c r="C6" s="1">
+        <f>A$2/(A$2+B6)*1023</f>
+        <v>792.40898528272658</v>
+      </c>
+      <c r="F6" s="2">
+        <v>291</v>
+      </c>
+      <c r="G6" s="1">
+        <f>E$2/(E$2+F6)*1023</f>
+        <v>750.13748854262144</v>
+      </c>
+      <c r="J6" s="2">
+        <v>291</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I$2/(I$2+J6)*1023</f>
+        <v>737.03170028818442</v>
+      </c>
+      <c r="N6" s="2">
+        <v>291</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>872.86689419795221</v>
-      </c>
-      <c r="F6" s="2">
-        <f>F5+28</f>
-        <v>172</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="1"/>
-        <v>779.29362880886436</v>
-      </c>
-      <c r="J6" s="2">
-        <f>J5+28</f>
-        <v>172</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>748.92523364485976</v>
-      </c>
-      <c r="N6" s="2">
-        <f>N5+28</f>
-        <v>172</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="3"/>
-        <v>761.16071428571433</v>
+        <v>722.60343087790113</v>
       </c>
       <c r="V6" s="2">
         <f>V5+33</f>
@@ -3874,39 +3832,38 @@
         <f>W5+28</f>
         <v>172</v>
       </c>
+      <c r="X6" s="2">
+        <v>291</v>
+      </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="B7" s="2">
-        <f>B6+27</f>
-        <v>199</v>
+        <v>326</v>
       </c>
       <c r="C7" s="1">
+        <f>A$2/(A$2+B7)*1023</f>
+        <v>771.4932126696832</v>
+      </c>
+      <c r="F7" s="2">
+        <v>326</v>
+      </c>
+      <c r="G7" s="1">
+        <f>E$2/(E$2+F7)*1023</f>
+        <v>726.82060390763763</v>
+      </c>
+      <c r="J7" s="2">
+        <v>326</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I$2/(I$2+J7)*1023</f>
+        <v>713.05762081784383</v>
+      </c>
+      <c r="N7" s="2">
+        <v>326</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="0"/>
-        <v>853.21100917431193</v>
-      </c>
-      <c r="F7" s="2">
-        <f>F6+27</f>
-        <v>199</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>751.20160213618158</v>
-      </c>
-      <c r="J7" s="2">
-        <f>J6+27</f>
-        <v>199</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="2"/>
-        <v>718.69955156950664</v>
-      </c>
-      <c r="N7" s="2">
-        <f>N6+27</f>
-        <v>199</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>731.75965665236049</v>
+        <v>697.953216374269</v>
       </c>
       <c r="V7" s="2">
         <f>V6+44</f>
@@ -3916,39 +3873,38 @@
         <f>W6+27</f>
         <v>199</v>
       </c>
+      <c r="X7" s="2">
+        <v>326</v>
+      </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="B8">
-        <f>B7+91</f>
-        <v>290</v>
+        <v>385</v>
       </c>
       <c r="C8" s="1">
+        <f>A$2/(A$2+B8)*1023</f>
+        <v>738.62815884476538</v>
+      </c>
+      <c r="F8">
+        <v>385</v>
+      </c>
+      <c r="G8" s="1">
+        <f>E$2/(E$2+F8)*1023</f>
+        <v>690.63291139240505</v>
+      </c>
+      <c r="J8">
+        <v>385</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I$2/(I$2+J8)*1023</f>
+        <v>675.99118942731286</v>
+      </c>
+      <c r="N8">
+        <v>385</v>
+      </c>
+      <c r="O8" s="1">
         <f t="shared" si="0"/>
-        <v>793.02325581395348</v>
-      </c>
-      <c r="F8">
-        <f>F7+91</f>
-        <v>290</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>669.82142857142856</v>
-      </c>
-      <c r="J8">
-        <f>J7+91</f>
-        <v>290</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="2"/>
-        <v>632.64473684210532</v>
-      </c>
-      <c r="N8">
-        <f>N7+91</f>
-        <v>290</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="3"/>
-        <v>647.4683544303798</v>
+        <v>660</v>
       </c>
       <c r="V8">
         <f>V7+118</f>
@@ -3958,39 +3914,38 @@
         <f>W7+91</f>
         <v>290</v>
       </c>
+      <c r="X8">
+        <v>385</v>
+      </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="B9">
-        <f>B8+30</f>
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="C9" s="1">
+        <f>A$2/(A$2+B9)*1023</f>
+        <v>703.09278350515467</v>
+      </c>
+      <c r="F9">
+        <v>455</v>
+      </c>
+      <c r="G9" s="1">
+        <f>E$2/(E$2+F9)*1023</f>
+        <v>652.11155378486058</v>
+      </c>
+      <c r="J9">
+        <v>455</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I$2/(I$2+J9)*1023</f>
+        <v>636.72199170124486</v>
+      </c>
+      <c r="N9">
+        <v>455</v>
+      </c>
+      <c r="O9" s="1">
         <f t="shared" si="0"/>
-        <v>775</v>
-      </c>
-      <c r="F9">
-        <f>F8+30</f>
-        <v>320</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>646.72413793103453</v>
-      </c>
-      <c r="J9">
-        <f>J8+30</f>
-        <v>320</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="2"/>
-        <v>608.62025316455686</v>
-      </c>
-      <c r="N9">
-        <f>N8+30</f>
-        <v>320</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="3"/>
-        <v>623.78048780487802</v>
+        <v>620</v>
       </c>
       <c r="V9">
         <f>V8+35</f>
@@ -4000,39 +3955,38 @@
         <f>W8+30</f>
         <v>320</v>
       </c>
+      <c r="X9">
+        <v>455</v>
+      </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="B10">
-        <f>B9+24</f>
-        <v>344</v>
+        <v>505</v>
       </c>
       <c r="C10" s="1">
+        <f>A$2/(A$2+B10)*1023</f>
+        <v>679.73421926910305</v>
+      </c>
+      <c r="F10">
+        <v>505</v>
+      </c>
+      <c r="G10" s="1">
+        <f>E$2/(E$2+F10)*1023</f>
+        <v>627.12643678160919</v>
+      </c>
+      <c r="J10">
+        <v>505</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I$2/(I$2+J10)*1023</f>
+        <v>611.35458167330682</v>
+      </c>
+      <c r="N10">
+        <v>505</v>
+      </c>
+      <c r="O10" s="1">
         <f t="shared" si="0"/>
-        <v>761.16071428571433</v>
-      </c>
-      <c r="F10">
-        <f>F9+24</f>
-        <v>344</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>629.3624161073825</v>
-      </c>
-      <c r="J10">
-        <f>J9+24</f>
-        <v>344</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="2"/>
-        <v>590.67567567567562</v>
-      </c>
-      <c r="N10">
-        <f>N9+24</f>
-        <v>344</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="3"/>
-        <v>606.042654028436</v>
+        <v>594.27385892116183</v>
       </c>
       <c r="V10">
         <f>V9+42</f>
@@ -4042,39 +3996,38 @@
         <f>W9+24</f>
         <v>344</v>
       </c>
+      <c r="X10">
+        <v>505</v>
+      </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="B11">
-        <f>B10+73</f>
-        <v>417</v>
+        <v>666</v>
       </c>
       <c r="C11" s="1">
+        <f>A$2/(A$2+B11)*1023</f>
+        <v>614.04561824729888</v>
+      </c>
+      <c r="F11">
+        <v>666</v>
+      </c>
+      <c r="G11" s="1">
+        <f>E$2/(E$2+F11)*1023</f>
+        <v>558.25375170532061</v>
+      </c>
+      <c r="J11">
+        <v>666</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I$2/(I$2+J11)*1023</f>
+        <v>541.84322033898309</v>
+      </c>
+      <c r="N11">
+        <v>666</v>
+      </c>
+      <c r="O11" s="1">
         <f t="shared" si="0"/>
-        <v>721.94777699364863</v>
-      </c>
-      <c r="F11">
-        <f>F10+73</f>
-        <v>417</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>581.85108583247154</v>
-      </c>
-      <c r="J11">
-        <f>J10+73</f>
-        <v>417</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="2"/>
-        <v>542.06313416009027</v>
-      </c>
-      <c r="N11">
-        <f>N10+73</f>
-        <v>417</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="3"/>
-        <v>557.79716466739364</v>
+        <v>524.23133235724742</v>
       </c>
       <c r="V11">
         <f>V10+111</f>
@@ -4084,39 +4037,38 @@
         <f>W10+73</f>
         <v>417</v>
       </c>
+      <c r="X11">
+        <v>666</v>
+      </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="B12">
-        <f>B11+27</f>
-        <v>444</v>
+        <v>715</v>
       </c>
       <c r="C12" s="1">
+        <f>A$2/(A$2+B12)*1023</f>
+        <v>596.5014577259476</v>
+      </c>
+      <c r="F12">
+        <v>715</v>
+      </c>
+      <c r="G12" s="1">
+        <f>E$2/(E$2+F12)*1023</f>
+        <v>540.19801980198019</v>
+      </c>
+      <c r="J12">
+        <v>715</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I$2/(I$2+J12)*1023</f>
+        <v>523.72013651877126</v>
+      </c>
+      <c r="N12">
+        <v>715</v>
+      </c>
+      <c r="O12" s="1">
         <f t="shared" si="0"/>
-        <v>708.44875346260392</v>
-      </c>
-      <c r="F12">
-        <f>F11+27</f>
-        <v>444</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>566.04627766599594</v>
-      </c>
-      <c r="J12">
-        <f>J11+27</f>
-        <v>444</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="2"/>
-        <v>526.05032822757107</v>
-      </c>
-      <c r="N12">
-        <f>N11+27</f>
-        <v>444</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="3"/>
-        <v>541.84322033898309</v>
+        <v>506.0777385159011</v>
       </c>
       <c r="V12">
         <f>V11+20</f>
@@ -4126,39 +4078,38 @@
         <f>W11+27</f>
         <v>444</v>
       </c>
+      <c r="X12">
+        <v>715</v>
+      </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="B13">
-        <f>B12+19</f>
-        <v>463</v>
+        <v>759</v>
       </c>
       <c r="C13" s="1">
+        <f>A$2/(A$2+B13)*1023</f>
+        <v>581.58044343376923</v>
+      </c>
+      <c r="F13">
+        <v>759</v>
+      </c>
+      <c r="G13" s="1">
+        <f>E$2/(E$2+F13)*1023</f>
+        <v>524.95189223861451</v>
+      </c>
+      <c r="J13">
+        <v>759</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I$2/(I$2+J13)*1023</f>
+        <v>508.44930417495033</v>
+      </c>
+      <c r="N13">
+        <v>759</v>
+      </c>
+      <c r="O13" s="1">
         <f t="shared" si="0"/>
-        <v>699.24812030075191</v>
-      </c>
-      <c r="F13">
-        <f>F12+19</f>
-        <v>463</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>555.42941757156962</v>
-      </c>
-      <c r="J13">
-        <f>J12+19</f>
-        <v>463</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="2"/>
-        <v>515.33762057877811</v>
-      </c>
-      <c r="N13">
-        <f>N12+19</f>
-        <v>463</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="3"/>
-        <v>531.15264797507791</v>
+        <v>490.815627141878</v>
       </c>
       <c r="V13">
         <f>V12+37</f>
@@ -4168,39 +4119,38 @@
         <f>W12+19</f>
         <v>463</v>
       </c>
+      <c r="X13">
+        <v>759</v>
+      </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="B14">
-        <f>B13+51</f>
-        <v>514</v>
+        <v>826</v>
       </c>
       <c r="C14" s="1">
+        <f>A$2/(A$2+B14)*1023</f>
+        <v>560.24096385542168</v>
+      </c>
+      <c r="F14">
+        <v>826</v>
+      </c>
+      <c r="G14" s="1">
+        <f>E$2/(E$2+F14)*1023</f>
+        <v>503.32103321033208</v>
+      </c>
+      <c r="J14">
+        <v>826</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I$2/(I$2+J14)*1023</f>
+        <v>486.83375634517768</v>
+      </c>
+      <c r="N14">
+        <v>826</v>
+      </c>
+      <c r="O14" s="1">
         <f t="shared" si="0"/>
-        <v>675.69352708058125</v>
-      </c>
-      <c r="F14">
-        <f>F13+51</f>
-        <v>514</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>528.80639097744358</v>
-      </c>
-      <c r="J14">
-        <f>J13+51</f>
-        <v>514</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="2"/>
-        <v>488.6280487804878</v>
-      </c>
-      <c r="N14">
-        <f>N13+51</f>
-        <v>514</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="3"/>
-        <v>504.43786982248525</v>
+        <v>469.26605504587161</v>
       </c>
       <c r="V14">
         <f>V13+59</f>
@@ -4210,39 +4160,38 @@
         <f>W13+51</f>
         <v>514</v>
       </c>
+      <c r="X14">
+        <v>826</v>
+      </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="B15">
-        <f>B14+30</f>
-        <v>544</v>
+        <v>850</v>
       </c>
       <c r="C15" s="1">
+        <f>A$2/(A$2+B15)*1023</f>
+        <v>552.97297297297303</v>
+      </c>
+      <c r="F15">
+        <v>850</v>
+      </c>
+      <c r="G15" s="1">
+        <f>E$2/(E$2+F15)*1023</f>
+        <v>496</v>
+      </c>
+      <c r="J15">
+        <v>850</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I$2/(I$2+J15)*1023</f>
+        <v>479.53125</v>
+      </c>
+      <c r="N15">
+        <v>850</v>
+      </c>
+      <c r="O15" s="1">
         <f t="shared" si="0"/>
-        <v>662.56476683937819</v>
-      </c>
-      <c r="F15">
-        <f>F14+30</f>
-        <v>544</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>514.3053016453382</v>
-      </c>
-      <c r="J15">
-        <f>J14+30</f>
-        <v>544</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="2"/>
-        <v>474.17159763313606</v>
-      </c>
-      <c r="N15">
-        <f>N14+30</f>
-        <v>544</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="3"/>
-        <v>489.94252873563215</v>
+        <v>462</v>
       </c>
       <c r="V15">
         <f>V14+45</f>
@@ -4252,39 +4201,38 @@
         <f>W14+30</f>
         <v>544</v>
       </c>
+      <c r="X15">
+        <v>850</v>
+      </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="B16">
-        <f>B15+31</f>
-        <v>575</v>
+        <v>880</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>649.52380952380952</v>
+        <f>A$2/(A$2+B16)*1023</f>
+        <v>544.14893617021278</v>
       </c>
       <c r="F16">
-        <f>F15+31</f>
-        <v>575</v>
+        <v>880</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>500.13333333333333</v>
+        <f>E$2/(E$2+F16)*1023</f>
+        <v>487.14285714285711</v>
       </c>
       <c r="J16">
-        <f>J15+31</f>
-        <v>575</v>
+        <v>880</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="2"/>
-        <v>460.10526315789474</v>
+        <f>I$2/(I$2+J16)*1023</f>
+        <v>470.70552147239266</v>
       </c>
       <c r="N16">
-        <f>N15+31</f>
-        <v>575</v>
+        <v>880</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="3"/>
-        <v>475.81395348837208</v>
+        <f>M$2/(M$2+N16)*1023</f>
+        <v>453.22784810126581</v>
       </c>
       <c r="V16">
         <f>V15+40</f>
@@ -4294,36 +4242,15 @@
         <f>W15+31</f>
         <v>575</v>
       </c>
+      <c r="X16">
+        <v>880</v>
+      </c>
     </row>
-    <row r="17" spans="2:23">
-      <c r="B17">
-        <v>625</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>629.53846153846155</v>
-      </c>
-      <c r="F17">
-        <v>625</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>478.85106382978722</v>
-      </c>
-      <c r="J17">
-        <v>625</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="2"/>
-        <v>439.09589041095887</v>
-      </c>
-      <c r="N17">
-        <v>625</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="3"/>
-        <v>454.66666666666663</v>
-      </c>
+    <row r="17" spans="3:23">
+      <c r="C17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="V17">
         <v>765</v>
       </c>
